--- a/files/CH-213 Custom Grouping.xlsx
+++ b/files/CH-213 Custom Grouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New WEbsite\Linkedin\Challange\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgryc\Documents\omids_excel_challenges\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB907F-EBC5-46C0-B166-A117CDDE398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D8EFE5-133A-4EFA-9790-BB6ED9FA9BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -249,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,13 +293,29 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,25 +324,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,12 +935,49 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="792" row="6">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6FE684BB-759B-4181-BC69-4E209D560A46}">
+  <we:reference id="wa200006518" version="1.1.2.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200006518" version="1.1.2.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="pyscriptSettings" value="&quot;{\&quot;defaultMode\&quot;:0}&quot;"/>
+    <we:property name="AnacondaCodeActiveInterpreter" value="&quot;r&quot;"/>
+    <we:property name="rworkerConfig" value="&quot;{\&quot;webrVersion\&quot;:\&quot;0.4.2\&quot;,\&quot;webrPackages\&quot;:[\&quot;jsonlite\&quot;,\&quot;sloop\&quot;,\&quot;tidyverse\&quot;],\&quot;initCode\&quot;:\&quot;## Add imports\\nlibrary(tidyverse)\\n\\n## Configuration\\noptions(warnPartialMatchDollar = TRUE)\\n\\n## Define functions\\n\\n\\n## Pre-built utility functions\\n\\n# Convert to tibble or data.frame\\nto_dataframe &lt;- function(x, as_tibble=TRUE) {\\n  if (inherits(x, \\\&quot;data.frame\\\&quot;)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  # Get column names from first row if available\\n  if (length(x) &gt; 1) {\\n    col_names &lt;- x[[1]]\\n    data_rows &lt;- x[-1]\\n  } else {\\n    data_rows &lt;- x\\n    col_names &lt;- paste0(\\\&quot;V\\\&quot;, seq_len(length(x[[1]])))\\n  }\\n\\n  # Convert to column-wise list preserving data types\\n  cols &lt;- to_colwise_list(data_rows)\\n  names(cols) &lt;- col_names\\n\\n  # Create data frame preserving column types\\n  df &lt;- as.data.frame(cols, stringsAsFactors = FALSE)\\n\\n  if (as_tibble) {\\n    if (!requireNamespace(\\\&quot;dplyr\\\&quot;, quietly = TRUE)) {\\n      warning(\\\&quot;Package 'dplyr' needed for tibble conversion\\\&quot;)\\n    } else {\\n      return(dplyr::as_tibble(df))\\n    }\\n  }\\n  return(df)\\n}\\n\\n# Convert to matrix\\nto_matrix &lt;- function(x) {\\n  if (is.matrix(x)) {\\n    return(x)\\n  }\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n  return(do.call(rbind, lapply(x, unlist)))\\n}\\n\\n# Convert to colwise list of vectors\\nto_colwise_list &lt;- function(x) {\\n  if (!is_list_of_lists(x)) {\\n    stop(\\\&quot;Expected list of lists\\\&quot;)\\n  }\\n\\n  ncols &lt;- length(x[[1]])\\n  lapply(seq_len(ncols), function(j) {\\n    do.call(c, lapply(seq_along(x), function(i) x[[i]][[j]]))\\n  })\\n}\\n\\nis_list_of_lists &lt;- function(x) {\\n  is.list(x) &amp;&amp; length(x) &gt; 0 &amp;&amp; is.list(x[[1]])\\n}\\n\\n\&quot;}&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="pyscript_f577798c-a0ab-49b4-89b3-831c5a921640" type="matrix" appref="{AAC8C50A-60EF-4659-9550-DEA1A9A3C34E}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_PYSCRIPT_CODE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_ANACONDA_CODE</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{0858819E-0033-43BF-8937-05EC82904868}">
+      <we:backgroundApp state="1" runtimeId="PyScript.Url"/>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -928,40 +988,55 @@
     <col min="4" max="6" width="4.625" customWidth="1"/>
     <col min="7" max="7" width="15.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="19"/>
       <c r="E1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
+      </c>
+      <c r="J2" s="2" t="str" cm="1">
+        <f t="array" ref="J2:K5">_xldudf_ANACONDA_CODE("r", "### Do Not Edit this formula directly. Use Anaconda Code to modify.
+df = to_dataframe(REF($P3$))
+df %&gt;%
+  mutate(Group = case_when(Temperature &lt; 10 ~ ""Cold"",
+                           Temperature &gt; 24 ~ ""Hot"",
+                            TRUE ~ ""Mil"&amp;"d"")) %&gt;%
+summarise(`No days` = n(), .by = Group) %&gt;%
+arrange(`No days`)", 0, B2:C18, "link", 0)</f>
+        <v>Group</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <v>No days</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
         <v>45292</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>26</v>
       </c>
       <c r="D3" s="7"/>
@@ -973,14 +1048,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="9" t="str">
+        <v>Cold</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11">
         <v>45293</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>19</v>
       </c>
       <c r="D4" s="7"/>
@@ -992,14 +1071,18 @@
         <v>6</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="9" t="str">
+        <v>Mild</v>
+      </c>
+      <c r="K4" s="22">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11">
         <v>45294</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>30</v>
       </c>
       <c r="D5" s="7"/>
@@ -1011,14 +1094,18 @@
         <v>9</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="9" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="K5" s="22">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>45295</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>27</v>
       </c>
       <c r="D6" s="7"/>
@@ -1033,7 +1120,7 @@
       <c r="B7" s="11">
         <v>45296</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>25</v>
       </c>
       <c r="D7" s="7"/>
@@ -1046,7 +1133,7 @@
       <c r="B8" s="11">
         <v>45297</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
       <c r="D8" s="7"/>
@@ -1062,7 +1149,7 @@
       <c r="B9" s="11">
         <v>45298</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>26</v>
       </c>
       <c r="D9" s="7"/>
@@ -1078,7 +1165,7 @@
       <c r="B10" s="11">
         <v>45299</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>29</v>
       </c>
       <c r="D10" s="7"/>
@@ -1094,7 +1181,7 @@
       <c r="B11" s="11">
         <v>45300</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>24</v>
       </c>
       <c r="D11" s="7"/>
@@ -1110,7 +1197,7 @@
       <c r="B12" s="11">
         <v>45301</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>17</v>
       </c>
       <c r="D12" s="7"/>
@@ -1128,7 +1215,7 @@
       <c r="B13" s="11">
         <v>45303</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>19</v>
       </c>
       <c r="D13" s="7"/>
@@ -1139,7 +1226,7 @@
       <c r="B14" s="11">
         <v>45304</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>25</v>
       </c>
       <c r="D14" s="7"/>
@@ -1150,7 +1237,7 @@
       <c r="B15" s="11">
         <v>45306</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>26</v>
       </c>
       <c r="D15" s="7"/>
@@ -1161,7 +1248,7 @@
       <c r="B16" s="11">
         <v>45307</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>24</v>
       </c>
       <c r="D16" s="7"/>
@@ -1172,7 +1259,7 @@
       <c r="B17" s="11">
         <v>45308</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>29</v>
       </c>
       <c r="D17" s="7"/>
@@ -1184,7 +1271,7 @@
       <c r="B18" s="11">
         <v>45309</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>23</v>
       </c>
       <c r="D18" s="7"/>
@@ -1202,5 +1289,14 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{AAC8C50A-60EF-4659-9550-DEA1A9A3C34E}">
+          <xm:f>Sheet1!$J$2</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>